--- a/NLM.F.xlsx
+++ b/NLM.F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CDD433-B595-4EAA-9B05-93F19E84474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE807A4-1910-47E0-B194-89027DE7D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{0050BF43-1F1D-40ED-B104-A6C0579DED4B}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{0050BF43-1F1D-40ED-B104-A6C0579DED4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1816,7 +1816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1959,6 +1959,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1976,12 +1981,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2812,10 +2811,10 @@
   <dimension ref="A1:AW320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,7 +3672,7 @@
         <f>0.59+4.828</f>
         <v>5.4180000000000001</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="3">
         <f>+O17-C17</f>
         <v>15.204000000000001</v>
       </c>
@@ -3681,7 +3680,7 @@
         <f>-3.481+4.974</f>
         <v>1.4930000000000003</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="3">
         <f>+Q17-E17</f>
         <v>10.172000000000001</v>
       </c>
@@ -3689,7 +3688,7 @@
         <f>0.627+3.246</f>
         <v>3.8730000000000002</v>
       </c>
-      <c r="H17" s="99">
+      <c r="H17" s="3">
         <f>+R17-G17</f>
         <v>3.8650000000000002</v>
       </c>
@@ -3885,21 +3884,21 @@
       <c r="C19" s="3">
         <v>167.399</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="3">
         <f>+O19-C19</f>
         <v>142.44600000000003</v>
       </c>
       <c r="E19" s="3">
         <v>184.017</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="3">
         <f>+Q19-E19</f>
         <v>182.05799999999999</v>
       </c>
       <c r="G19" s="3">
         <v>168.78299999999999</v>
       </c>
-      <c r="H19" s="99">
+      <c r="H19" s="3">
         <f>+R19-G19</f>
         <v>161.42100000000002</v>
       </c>
@@ -4093,21 +4092,21 @@
       <c r="C21" s="3">
         <v>38.631</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="3">
         <f>+O21-C21</f>
         <v>40.369</v>
       </c>
       <c r="E21" s="3">
         <v>40.384999999999998</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="3">
         <f>+Q21-E21</f>
         <v>43.699000000000005</v>
       </c>
       <c r="G21" s="3">
         <v>46.203000000000003</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="3">
         <f>+R21-G21</f>
         <v>49.006999999999991</v>
       </c>
@@ -4191,21 +4190,21 @@
       <c r="C22" s="3">
         <v>9.548</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="3">
         <f>+O22-C22</f>
         <v>8.8980000000000015</v>
       </c>
       <c r="E22" s="3">
         <v>10.353</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="3">
         <f>+Q22-E22</f>
         <v>10.125999999999999</v>
       </c>
       <c r="G22" s="3">
         <v>10.414999999999999</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="3">
         <f>+R22-G22</f>
         <v>9.9920000000000009</v>
       </c>
@@ -4289,21 +4288,21 @@
       <c r="C23" s="3">
         <v>54.493000000000002</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="3">
         <f>+O23-C23</f>
         <v>47.464999999999996</v>
       </c>
       <c r="E23" s="3">
         <v>61.094999999999999</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="3">
         <f>+Q23-E23</f>
         <v>71.336000000000013</v>
       </c>
       <c r="G23" s="3">
         <v>72.471000000000004</v>
       </c>
-      <c r="H23" s="99">
+      <c r="H23" s="3">
         <f>+R23-G23</f>
         <v>68.585000000000008</v>
       </c>
@@ -4496,21 +4495,21 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="3">
         <f>+O25-C25</f>
         <v>2.3E-2</v>
       </c>
       <c r="E25" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="3">
         <f>+Q25-E25</f>
         <v>0.72099999999999997</v>
       </c>
       <c r="G25" s="3">
         <v>1.054</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="3">
         <f>+R25-G25</f>
         <v>1.6820000000000002</v>
       </c>
@@ -4593,21 +4592,21 @@
       <c r="C26" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="3">
         <f>+O26-C26</f>
         <v>0.29700000000000004</v>
       </c>
       <c r="E26" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="3">
         <f>+Q26-E26</f>
         <v>0.49299999999999999</v>
       </c>
       <c r="G26" s="3">
         <v>0.52</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="3">
         <f>+R26-G26</f>
         <v>0.48499999999999988</v>
       </c>
@@ -4686,21 +4685,21 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="3">
         <f>+O27-C27</f>
         <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="99">
+      <c r="F27" s="3">
         <f>+Q27-E27</f>
         <v>-0.13200000000000001</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="99">
+      <c r="H27" s="3">
         <f>+R27-G27</f>
         <v>0</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>27.123999999999995</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="D28:I28" si="51">+E24+E25-E26+E27</f>
+        <f t="shared" ref="E28:I28" si="51">+E24+E25-E26+E27</f>
         <v>21.821999999999974</v>
       </c>
       <c r="F28" s="3">
@@ -4889,7 +4888,7 @@
         <f>2.732+0.157</f>
         <v>2.8890000000000002</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="3">
         <f>+O29-C29</f>
         <v>6.6360000000000001</v>
       </c>
@@ -4897,7 +4896,7 @@
         <f>6.054+0.273</f>
         <v>6.327</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="3">
         <f>+Q29-E29</f>
         <v>7.17</v>
       </c>
@@ -4905,7 +4904,7 @@
         <f>6.671+0.305</f>
         <v>6.976</v>
       </c>
-      <c r="H29" s="99">
+      <c r="H29" s="3">
         <f>+R29-G29</f>
         <v>11.173000000000002</v>
       </c>
@@ -5151,81 +5150,81 @@
       <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="98">
-        <f t="shared" ref="C32:G32" si="65">+C30/C33</f>
+      <c r="C32" s="92">
+        <f t="shared" ref="C32:F32" si="65">+C30/C33</f>
         <v>1.1957259183647728</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="92">
         <f t="shared" si="65"/>
         <v>3.0073695820595896</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="92">
         <f t="shared" si="65"/>
         <v>2.2744626939678478</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="92">
         <f t="shared" si="65"/>
         <v>2.723630544470709</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="92">
         <f t="shared" ref="G32:I32" si="66">+G30/G33</f>
         <v>2.2751966283640952</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="92">
         <f t="shared" si="66"/>
         <v>3.9625118053347683</v>
       </c>
-      <c r="I32" s="98">
+      <c r="I32" s="92">
         <f t="shared" si="66"/>
         <v>2.6042928116410198</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="98">
+      <c r="L32" s="92">
         <f t="shared" ref="L32:W32" si="67">+L30/L33</f>
         <v>2.9330691325407243</v>
       </c>
-      <c r="M32" s="98">
+      <c r="M32" s="92">
         <f t="shared" si="67"/>
         <v>1.8482313224717526</v>
       </c>
-      <c r="N32" s="98">
+      <c r="N32" s="92">
         <f t="shared" si="67"/>
         <v>3.6817848231322614</v>
       </c>
-      <c r="O32" s="98">
+      <c r="O32" s="92">
         <f t="shared" si="67"/>
         <v>4.2028474974313754</v>
       </c>
-      <c r="P32" s="98">
+      <c r="P32" s="92">
         <f t="shared" si="67"/>
         <v>3.5672978130045587</v>
       </c>
-      <c r="Q32" s="98">
+      <c r="Q32" s="92">
         <f t="shared" si="67"/>
         <v>4.9977983267283088</v>
       </c>
-      <c r="R32" s="98">
+      <c r="R32" s="92">
         <f t="shared" si="67"/>
         <v>6.2373403786878123</v>
       </c>
-      <c r="S32" s="98">
+      <c r="S32" s="92">
         <f t="shared" si="67"/>
         <v>5.4884621816305348</v>
       </c>
-      <c r="T32" s="98">
+      <c r="T32" s="92">
         <f t="shared" si="67"/>
         <v>5.8606567893517862</v>
       </c>
-      <c r="U32" s="98">
+      <c r="U32" s="92">
         <f t="shared" si="67"/>
         <v>6.1135306658669775</v>
       </c>
-      <c r="V32" s="98">
+      <c r="V32" s="92">
         <f t="shared" si="67"/>
         <v>6.377457867918257</v>
       </c>
-      <c r="W32" s="98">
+      <c r="W32" s="92">
         <f t="shared" si="67"/>
         <v>6.652931648577705</v>
       </c>
@@ -5833,67 +5832,67 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="100">
+      <c r="G40" s="93">
         <f>+G16/E16-1</f>
         <v>-2.7240817666444039E-3</v>
       </c>
-      <c r="H40" s="100">
+      <c r="H40" s="93">
         <f t="shared" ref="H40:J40" si="83">+H16/F16-1</f>
         <v>-1.7509824095996995E-3</v>
       </c>
-      <c r="I40" s="100">
+      <c r="I40" s="93">
         <f t="shared" si="83"/>
         <v>4.4153813528475361E-2</v>
       </c>
-      <c r="J40" s="100">
+      <c r="J40" s="93">
         <f t="shared" si="83"/>
         <v>-1</v>
       </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="M40" s="100">
+      <c r="M40" s="93">
         <f t="shared" ref="M40:P40" si="84">+M16/L16-1</f>
         <v>2.680822488042045E-2</v>
       </c>
-      <c r="N40" s="100">
+      <c r="N40" s="93">
         <f t="shared" si="84"/>
         <v>5.5096503020440446E-2</v>
       </c>
-      <c r="O40" s="100">
+      <c r="O40" s="93">
         <f t="shared" si="84"/>
         <v>-4.4491245113267075E-2</v>
       </c>
-      <c r="P40" s="100">
+      <c r="P40" s="93">
         <f t="shared" si="84"/>
         <v>9.8398902885237227E-2</v>
       </c>
-      <c r="Q40" s="100">
+      <c r="Q40" s="93">
         <f t="shared" si="69"/>
         <v>0.10430909878997108</v>
       </c>
-      <c r="R40" s="100">
+      <c r="R40" s="93">
         <f t="shared" ref="R40:S40" si="85">+R16/Q16-1</f>
         <v>-2.2330643647964221E-3</v>
       </c>
-      <c r="S40" s="100">
+      <c r="S40" s="93">
         <f t="shared" si="85"/>
         <v>0.11801396826767663</v>
       </c>
-      <c r="T40" s="100">
+      <c r="T40" s="93">
         <f t="shared" si="71"/>
         <v>6.9028155069783104E-2</v>
       </c>
-      <c r="U40" s="100">
+      <c r="U40" s="93">
         <f t="shared" si="72"/>
         <v>4.3377772831769024E-2</v>
       </c>
-      <c r="V40" s="100">
+      <c r="V40" s="93">
         <f t="shared" si="73"/>
         <v>4.3410635701584654E-2</v>
       </c>
-      <c r="W40" s="100">
+      <c r="W40" s="93">
         <f t="shared" si="74"/>
         <v>4.3443541995319412E-2</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:H41" si="86">+C20/C18</f>
+        <f t="shared" ref="C41:G41" si="86">+C20/C18</f>
         <v>0.40479720672576064</v>
       </c>
       <c r="D41" s="8">
@@ -6035,7 +6034,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" ref="C42:H42" si="90">+C24/C18</f>
+        <f t="shared" ref="C42:G42" si="90">+C24/C18</f>
         <v>3.9737312753558317E-2</v>
       </c>
       <c r="D42" s="8">
@@ -58932,30 +58931,30 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" s="61"/>
-      <c r="C67" s="96" t="s">
+      <c r="C67" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="97"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
       <c r="M67" s="61"/>
-      <c r="N67" s="94" t="s">
+      <c r="N67" s="97" t="s">
         <v>326</v>
       </c>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="94"/>
-      <c r="U67" s="95"/>
+      <c r="O67" s="97"/>
+      <c r="P67" s="97"/>
+      <c r="Q67" s="97"/>
+      <c r="R67" s="97"/>
+      <c r="S67" s="97"/>
+      <c r="T67" s="97"/>
+      <c r="U67" s="98"/>
     </row>
     <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="95" t="s">
         <v>264</v>
       </c>
       <c r="C68" s="62">
@@ -58983,7 +58982,7 @@
       <c r="J68" s="85">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M68" s="92" t="s">
+      <c r="M68" s="95" t="s">
         <v>264</v>
       </c>
       <c r="N68" s="62">
@@ -59013,7 +59012,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="92"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="63">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -59039,7 +59038,7 @@
       <c r="J69" s="64">
         <v>161.6210071344959</v>
       </c>
-      <c r="M69" s="92"/>
+      <c r="M69" s="95"/>
       <c r="N69" s="63">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -59067,7 +59066,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="92"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -59092,7 +59091,7 @@
       <c r="J70" s="64">
         <v>135.83450220838472</v>
       </c>
-      <c r="M70" s="92"/>
+      <c r="M70" s="95"/>
       <c r="N70" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -59119,7 +59118,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="92"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="63">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -59145,7 +59144,7 @@
         <v>118.49615114854844</v>
       </c>
       <c r="K71" s="1"/>
-      <c r="M71" s="92"/>
+      <c r="M71" s="95"/>
       <c r="N71" s="63">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -59172,7 +59171,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="92"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="63">
         <v>0.08</v>
       </c>
@@ -59197,7 +59196,7 @@
       <c r="J72" s="86">
         <v>105.99189464707008</v>
       </c>
-      <c r="M72" s="92"/>
+      <c r="M72" s="95"/>
       <c r="N72" s="63">
         <v>0.08</v>
       </c>
@@ -59224,7 +59223,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="92"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="63">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -59249,7 +59248,7 @@
       <c r="J73" s="64">
         <v>96.514379432535293</v>
       </c>
-      <c r="M73" s="92"/>
+      <c r="M73" s="95"/>
       <c r="N73" s="63">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -59276,7 +59275,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="92"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="63">
         <v>0.09</v>
       </c>
@@ -59301,7 +59300,7 @@
       <c r="J74" s="64">
         <v>89.059250089779198</v>
       </c>
-      <c r="M74" s="92"/>
+      <c r="M74" s="95"/>
       <c r="N74" s="63">
         <v>0.09</v>
       </c>
@@ -59328,7 +59327,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="93"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="63">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -59353,7 +59352,7 @@
       <c r="J75" s="64">
         <v>83.023664774733291</v>
       </c>
-      <c r="M75" s="93"/>
+      <c r="M75" s="96"/>
       <c r="N75" s="63">
         <v>9.6000000000000002E-2</v>
       </c>

--- a/NLM.F.xlsx
+++ b/NLM.F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02D4A7-0430-47B1-8C1C-E512D2874953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819CE42-BD6B-4684-9A07-849B11A05376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{0050BF43-1F1D-40ED-B104-A6C0579DED4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="5" xr2:uid="{0050BF43-1F1D-40ED-B104-A6C0579DED4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1450,13 +1450,13 @@
     <t>Change in non-operating Liabilities</t>
   </si>
   <si>
-    <t>Q225</t>
-  </si>
-  <si>
     <t>H125</t>
   </si>
   <si>
     <t>H225</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -1475,13 +1475,25 @@
     <numFmt numFmtId="172" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="173" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1809,175 +1821,180 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2036,16 +2053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2060,8 +2077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10958513" y="200025"/>
-          <a:ext cx="9525" cy="8253413"/>
+          <a:off x="12801600" y="223837"/>
+          <a:ext cx="9525" cy="7024688"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2091,16 +2108,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>96838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2115,8 +2132,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6757987" y="139700"/>
-          <a:ext cx="0" cy="11474450"/>
+          <a:off x="7367587" y="96838"/>
+          <a:ext cx="0" cy="9740900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2461,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8E969-FBDF-4FDE-BB86-27F9F9EBF10F}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>92.6</v>
+        <v>95.4</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>330</v>
@@ -2501,8 +2518,8 @@
       <c r="H3" s="4">
         <v>6.8125980000000004</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>351</v>
+      <c r="I3" s="95" t="s">
+        <v>353</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>10</v>
@@ -2520,7 +2537,7 @@
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>630.84657479999998</v>
+        <v>649.92184920000011</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>332</v>
@@ -2537,10 +2554,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>110.125</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>351</v>
+        <v>116.907</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>353</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>334</v>
@@ -2554,10 +2571,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>14.090999999999999</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>351</v>
+        <v>12.127000000000001</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2578,7 +2595,7 @@
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>534.81257479999999</v>
+        <v>545.14184920000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2809,10 +2826,10 @@
   <dimension ref="A1:AW320"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2847,10 +2864,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>20</v>
@@ -3325,8 +3342,7 @@
         <v>395.55</v>
       </c>
       <c r="S11" s="24">
-        <f>+S3*S4</f>
-        <v>421.44</v>
+        <v>430.57499999999999</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" ref="T11:W11" si="10">+T3*T4</f>
@@ -3380,8 +3396,7 @@
         <v>242.50200000000001</v>
       </c>
       <c r="S12" s="24">
-        <f>+S7*S8</f>
-        <v>291.91104848112758</v>
+        <v>250.96899999999999</v>
       </c>
       <c r="T12" s="24">
         <f t="shared" ref="T12:W12" si="11">+T7*T8</f>
@@ -3435,11 +3450,10 @@
         <v>288.36700000000002</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" ref="S13:W13" si="12">46%*S16</f>
-        <v>328.14148230131872</v>
+        <v>296.51100000000002</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T13:W13" si="12">46%*T16</f>
         <v>350.79248342644263</v>
       </c>
       <c r="U13" s="4">
@@ -3490,11 +3504,10 @@
         <v>132.30600000000001</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" ref="S14:W14" si="13">22%*S16</f>
-        <v>156.93723066584806</v>
+        <v>128.251</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="T14:W14" si="13">22%*T16</f>
         <v>167.77031816047256</v>
       </c>
       <c r="U14" s="4">
@@ -3545,11 +3558,10 @@
         <v>217.37899999999999</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:W15" si="14">32%*S16</f>
-        <v>228.27233551396083</v>
+        <v>256.78199999999998</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="T15:W15" si="14">32%*T16</f>
         <v>244.02955368796006</v>
       </c>
       <c r="U15" s="4">
@@ -3593,7 +3605,10 @@
       <c r="I16" s="28">
         <v>329.89100000000002</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="28">
+        <f>+S16-I16</f>
+        <v>351.65199999999999</v>
+      </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28">
         <v>509.28399999999999</v>
@@ -3617,8 +3632,7 @@
         <v>638.05200000000002</v>
       </c>
       <c r="S16" s="28">
-        <f>+SUM(S11:S12)</f>
-        <v>713.35104848112758</v>
+        <v>681.54300000000001</v>
       </c>
       <c r="T16" s="28">
         <f t="shared" ref="T16:W16" si="15">+SUM(T11:T12)</f>
@@ -3695,7 +3709,10 @@
         <f>11.538+7.046</f>
         <v>18.584</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="103">
+        <f>+S17-I17</f>
+        <v>6.625</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
         <f>-5.613+9.315</f>
@@ -3726,7 +3743,8 @@
         <v>7.7380000000000004</v>
       </c>
       <c r="S17" s="4">
-        <v>11.7</v>
+        <f>15.882+9.327</f>
+        <v>25.209</v>
       </c>
       <c r="T17" s="4">
         <v>11.7</v>
@@ -3792,14 +3810,17 @@
         <v>319.81399999999996</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18:I18" si="18">+H16+H17</f>
+        <f t="shared" ref="H18:J18" si="18">+H16+H17</f>
         <v>325.97600000000006</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="18"/>
         <v>348.47500000000002</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <f t="shared" si="18"/>
+        <v>358.27699999999999</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
         <f t="shared" ref="L18" si="19">+L16+L17</f>
@@ -3831,7 +3852,7 @@
       </c>
       <c r="S18" s="4">
         <f t="shared" si="24"/>
-        <v>725.05104848112762</v>
+        <v>706.75199999999995</v>
       </c>
       <c r="T18" s="4">
         <f t="shared" si="24"/>
@@ -3905,7 +3926,10 @@
         <f>170.817+8.556</f>
         <v>179.37300000000002</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="103">
+        <f>+S19-I19</f>
+        <v>181.292</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
         <v>300.27300000000002</v>
@@ -3929,8 +3953,7 @@
         <v>330.20400000000001</v>
       </c>
       <c r="S19" s="4">
-        <f>+S18-S20</f>
-        <v>389.77605569499769</v>
+        <v>360.66500000000002</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" ref="T19:W19" si="25">+T18-T20</f>
@@ -4000,14 +4023,17 @@
         <v>151.03099999999998</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:I20" si="28">+H18-H19</f>
+        <f t="shared" ref="H20:J20" si="28">+H18-H19</f>
         <v>164.55500000000004</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="28"/>
         <v>169.102</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" si="28"/>
+        <v>176.98499999999999</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
         <f t="shared" ref="L20" si="29">+L18-L19</f>
@@ -4030,7 +4056,7 @@
         <v>244.77000000000004</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" ref="Q20:R20" si="34">+Q18-Q19</f>
+        <f t="shared" ref="Q20:S20" si="34">+Q18-Q19</f>
         <v>285.07</v>
       </c>
       <c r="R20" s="4">
@@ -4038,8 +4064,8 @@
         <v>315.58600000000007</v>
       </c>
       <c r="S20" s="4">
-        <f>+S16*S41</f>
-        <v>335.27499278612993</v>
+        <f t="shared" si="34"/>
+        <v>346.08699999999993</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ref="T20:W20" si="35">+T16*T41</f>
@@ -4112,7 +4138,10 @@
       <c r="I21" s="4">
         <v>51.819000000000003</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="103">
+        <f>+S21-I21</f>
+        <v>54.037999999999997</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
         <v>74.275000000000006</v>
@@ -4136,11 +4165,10 @@
         <v>95.21</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" ref="S21:W21" si="36">+(S20-S24)*35%</f>
-        <v>99.869146787357849</v>
+        <v>105.857</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="T21:W21" si="36">+(T20-T24)*35%</f>
         <v>106.76292973848253</v>
       </c>
       <c r="U21" s="4">
@@ -4210,7 +4238,10 @@
       <c r="I22" s="4">
         <v>10.861000000000001</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="103">
+        <f>+S22-I22</f>
+        <v>9.5569999999999986</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
         <v>16.538</v>
@@ -4234,11 +4265,10 @@
         <v>20.407</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" ref="S22:W22" si="37">+(S20-S24)*9%</f>
-        <v>25.680637745320588</v>
+        <v>20.417999999999999</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="T22:W22" si="37">+(T20-T24)*9%</f>
         <v>27.453324789895508</v>
       </c>
       <c r="U22" s="4">
@@ -4308,7 +4338,10 @@
       <c r="I23" s="4">
         <v>82.715999999999994</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="103">
+        <f>+S23-I23</f>
+        <v>86.840999999999994</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
         <v>91.861000000000004</v>
@@ -4332,11 +4365,10 @@
         <v>141.05600000000001</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:W23" si="38">+(S20-S24)*56%</f>
-        <v>159.79063485977258</v>
+        <v>169.55699999999999</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="T23:W23" si="38">+(T20-T24)*56%</f>
         <v>170.82068758157206</v>
       </c>
       <c r="U23" s="4">
@@ -4403,14 +4435,17 @@
         <v>21.941999999999979</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" ref="H24:I24" si="41">+H20-SUM(H21:H23)</f>
+        <f t="shared" ref="H24:J24" si="41">+H20-SUM(H21:H23)</f>
         <v>36.971000000000032</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="41"/>
         <v>23.705999999999989</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="41"/>
+        <v>26.549000000000007</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4">
         <f t="shared" ref="L24" si="42">+L20-SUM(L21:L23)</f>
@@ -4433,7 +4468,7 @@
         <v>34.524000000000058</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" ref="Q24:R24" si="47">+Q20-SUM(Q21:Q23)</f>
+        <f t="shared" ref="Q24:S24" si="47">+Q20-SUM(Q21:Q23)</f>
         <v>48.075999999999965</v>
       </c>
       <c r="R24" s="4">
@@ -4441,8 +4476,8 @@
         <v>58.913000000000068</v>
       </c>
       <c r="S24" s="4">
-        <f>+S16*S42</f>
-        <v>49.934573393678939</v>
+        <f t="shared" si="47"/>
+        <v>50.254999999999939</v>
       </c>
       <c r="T24" s="4">
         <f t="shared" ref="T24:W24" si="48">+T16*T42</f>
@@ -4515,7 +4550,10 @@
       <c r="I25" s="4">
         <v>1.016</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="103">
+        <f>+S25-I25</f>
+        <v>1.4510000000000001</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4">
         <v>5.5E-2</v>
@@ -4539,23 +4577,23 @@
         <v>2.7360000000000002</v>
       </c>
       <c r="S25" s="4">
-        <v>2.5</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="T25" s="4">
         <f>+S25*(1+3%)</f>
-        <v>2.5750000000000002</v>
+        <v>2.54101</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" ref="U25:W25" si="49">+T25*(1+3%)</f>
-        <v>2.6522500000000004</v>
+        <v>2.6172403000000002</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="49"/>
-        <v>2.7318175000000005</v>
+        <v>2.6957575090000003</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="49"/>
-        <v>2.8137720250000005</v>
+        <v>2.7766302342700002</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -4612,7 +4650,10 @@
       <c r="I26" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="103">
+        <f>+S26-I26</f>
+        <v>0.436</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
         <v>0.79200000000000004</v>
@@ -4636,7 +4677,7 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="S26" s="4">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="T26" s="4">
         <v>0.5</v>
@@ -4705,7 +4746,10 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="103">
+        <f>+S27-I27</f>
+        <v>0</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4">
         <v>4.9000000000000002E-2</v>
@@ -4783,7 +4827,7 @@
         <v>27.123999999999995</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28:I28" si="51">+E24+E25-E26+E27</f>
+        <f t="shared" ref="E28:J28" si="51">+E24+E25-E26+E27</f>
         <v>21.821999999999974</v>
       </c>
       <c r="F28" s="4">
@@ -4802,7 +4846,10 @@
         <f t="shared" si="51"/>
         <v>24.277999999999988</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <f t="shared" si="51"/>
+        <v>27.564000000000007</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4">
         <f t="shared" ref="L28" si="52">+L24+L25-L26+L27</f>
@@ -4834,23 +4881,23 @@
       </c>
       <c r="S28" s="4">
         <f t="shared" si="58"/>
-        <v>51.934573393678939</v>
+        <v>51.841999999999935</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="58"/>
-        <v>55.456464869241273</v>
+        <v>55.42247486924127</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="58"/>
-        <v>57.849283925766272</v>
+        <v>57.814274225766269</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="58"/>
-        <v>60.346695075176513</v>
+        <v>60.310635084176518</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="58"/>
-        <v>62.95336572466654</v>
+        <v>62.916223933936543</v>
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
@@ -4911,7 +4958,10 @@
         <f>6.231+0.305</f>
         <v>6.5359999999999996</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="103">
+        <f>+S29-I29</f>
+        <v>8.2830000000000013</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4">
         <f>-0.482+9.85</f>
@@ -4941,24 +4991,24 @@
         <v>18.149000000000001</v>
       </c>
       <c r="S29" s="4">
-        <f>+S28*S43</f>
-        <v>14.541680550230105</v>
+        <f>14.268+0.551</f>
+        <v>14.819000000000001</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" ref="T29:W29" si="59">+T28*T43</f>
-        <v>15.527810163387558</v>
+        <v>15.518292963387557</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="59"/>
-        <v>16.197799499214558</v>
+        <v>16.187996783214558</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="59"/>
-        <v>16.897074621049423</v>
+        <v>16.886977823569428</v>
       </c>
       <c r="W29" s="4">
         <f t="shared" si="59"/>
-        <v>17.626942402906632</v>
+        <v>17.616542701502233</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -5012,14 +5062,17 @@
         <v>15.499999999999979</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:I30" si="62">+H28-H29</f>
+        <f t="shared" ref="H30:J30" si="62">+H28-H29</f>
         <v>26.995000000000033</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="62"/>
         <v>17.74199999999999</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <f t="shared" si="62"/>
+        <v>19.281000000000006</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4">
         <f t="shared" ref="L30:P30" si="63">+L28-L29</f>
@@ -5051,23 +5104,23 @@
       </c>
       <c r="S30" s="4">
         <f t="shared" si="64"/>
-        <v>37.392892843448834</v>
+        <v>37.022999999999932</v>
       </c>
       <c r="T30" s="4">
         <f t="shared" si="64"/>
-        <v>39.928654705853717</v>
+        <v>39.904181905853711</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="64"/>
-        <v>41.651484426551718</v>
+        <v>41.626277442551711</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="64"/>
-        <v>43.449620454127086</v>
+        <v>43.423657260607087</v>
       </c>
       <c r="W30" s="4">
         <f t="shared" si="64"/>
-        <v>45.326423321759904</v>
+        <v>45.29968123243431</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -5166,7 +5219,7 @@
         <v>2.723630544470709</v>
       </c>
       <c r="G32" s="29">
-        <f t="shared" ref="G32:I32" si="66">+G30/G33</f>
+        <f t="shared" ref="G32:J32" si="66">+G30/G33</f>
         <v>2.2751966283640952</v>
       </c>
       <c r="H32" s="29">
@@ -5177,7 +5230,10 @@
         <f t="shared" si="66"/>
         <v>2.6042928116410198</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="29">
+        <f t="shared" si="66"/>
+        <v>2.83019781880569</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="29">
         <f t="shared" ref="L32:W32" si="67">+L30/L33</f>
@@ -5209,23 +5265,23 @@
       </c>
       <c r="S32" s="29">
         <f t="shared" si="67"/>
-        <v>5.4884621816305348</v>
+        <v>5.4341699691765646</v>
       </c>
       <c r="T32" s="29">
         <f t="shared" si="67"/>
-        <v>5.8606567893517862</v>
+        <v>5.8570647153755635</v>
       </c>
       <c r="U32" s="29">
         <f t="shared" si="67"/>
-        <v>6.1135306658669775</v>
+        <v>6.1098308296714681</v>
       </c>
       <c r="V32" s="29">
         <f t="shared" si="67"/>
-        <v>6.377457867918257</v>
+        <v>6.3736470366368838</v>
       </c>
       <c r="W32" s="29">
         <f t="shared" si="67"/>
-        <v>6.652931648577705</v>
+        <v>6.6490064923578913</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -5279,7 +5335,9 @@
       <c r="I33" s="4">
         <v>6.8125980000000004</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>6.8125980000000004</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4">
         <v>6.8129999999999997</v>
@@ -5435,11 +5493,11 @@
       </c>
       <c r="S35" s="23">
         <f t="shared" si="70"/>
-        <v>6.5453166477057234E-2</v>
+        <v>8.8547591960561167E-2</v>
       </c>
       <c r="T35" s="23">
         <f t="shared" ref="T35:T40" si="71">+T11/S11-1</f>
-        <v>8.145833333333341E-2</v>
+        <v>5.8514312256865875E-2</v>
       </c>
       <c r="U35" s="23">
         <f t="shared" ref="U35:U40" si="72">+U11/T11-1</f>
@@ -5522,11 +5580,11 @@
       </c>
       <c r="S36" s="23">
         <f t="shared" si="76"/>
-        <v>0.20374697314301549</v>
+        <v>3.4915175957311639E-2</v>
       </c>
       <c r="T36" s="23">
         <f t="shared" si="71"/>
-        <v>5.1082365231926552E-2</v>
+        <v>0.22255161105505117</v>
       </c>
       <c r="U36" s="23">
         <f t="shared" si="72"/>
@@ -5607,11 +5665,11 @@
       </c>
       <c r="S37" s="23">
         <f t="shared" si="78"/>
-        <v>0.13793007626156495</v>
+        <v>2.8241789109017423E-2</v>
       </c>
       <c r="T37" s="23">
         <f t="shared" si="71"/>
-        <v>6.9028155069783104E-2</v>
+        <v>0.1830673513847465</v>
       </c>
       <c r="U37" s="23">
         <f t="shared" si="72"/>
@@ -5692,11 +5750,11 @@
       </c>
       <c r="S38" s="23">
         <f t="shared" si="80"/>
-        <v>0.18616865951542683</v>
+        <v>-3.0648647831542086E-2</v>
       </c>
       <c r="T38" s="23">
         <f t="shared" si="71"/>
-        <v>6.9028155069783104E-2</v>
+        <v>0.30814042900618754</v>
       </c>
       <c r="U38" s="23">
         <f t="shared" si="72"/>
@@ -5777,11 +5835,11 @@
       </c>
       <c r="S39" s="23">
         <f t="shared" si="82"/>
-        <v>5.011217971359172E-2</v>
+        <v>0.18126405954577018</v>
       </c>
       <c r="T39" s="23">
         <f t="shared" si="71"/>
-        <v>6.9028155069783104E-2</v>
+        <v>-4.9662539866657029E-2</v>
       </c>
       <c r="U39" s="23">
         <f t="shared" si="72"/>
@@ -5845,7 +5903,7 @@
       </c>
       <c r="J40" s="31">
         <f t="shared" si="83"/>
-        <v>-1</v>
+        <v>9.1710621493832578E-2</v>
       </c>
       <c r="K40" s="28"/>
       <c r="L40" s="32" t="s">
@@ -5877,11 +5935,11 @@
       </c>
       <c r="S40" s="31">
         <f t="shared" si="85"/>
-        <v>0.11801396826767663</v>
+        <v>6.8162156062515189E-2</v>
       </c>
       <c r="T40" s="31">
         <f t="shared" si="71"/>
-        <v>6.9028155069783104E-2</v>
+        <v>0.11892038400346738</v>
       </c>
       <c r="U40" s="31">
         <f t="shared" si="72"/>
@@ -5954,9 +6012,9 @@
         <f t="shared" si="87"/>
         <v>0.48526293134371185</v>
       </c>
-      <c r="J41" s="23" t="e">
+      <c r="J41" s="23">
         <f t="shared" si="87"/>
-        <v>#DIV/0!</v>
+        <v>0.49398928761823951</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="23">
@@ -6060,9 +6118,9 @@
         <f t="shared" si="91"/>
         <v>6.8027835569266046E-2</v>
       </c>
-      <c r="J42" s="23" t="e">
+      <c r="J42" s="23">
         <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
+        <v>7.4101882063319746E-2</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="23">
@@ -6166,9 +6224,9 @@
         <f t="shared" si="95"/>
         <v>0.26921492709448896</v>
       </c>
-      <c r="J43" s="23" t="e">
+      <c r="J43" s="23">
         <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
+        <v>0.30050065302568563</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="23">
@@ -6384,7 +6442,9 @@
       <c r="R46" s="4">
         <v>8.3719999999999999</v>
       </c>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4">
+        <v>7.43</v>
+      </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -6456,7 +6516,9 @@
       <c r="R47" s="4">
         <v>107.19799999999999</v>
       </c>
-      <c r="S47" s="4"/>
+      <c r="S47" s="4">
+        <v>110.14100000000001</v>
+      </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -6528,7 +6590,9 @@
       <c r="R48" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -6600,7 +6664,9 @@
       <c r="R49" s="4">
         <v>0</v>
       </c>
-      <c r="S49" s="4"/>
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -6688,10 +6754,13 @@
         <v>122.63500000000001</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" ref="R50" si="100">+SUM(R46:R48)</f>
+        <f t="shared" ref="R50:S50" si="100">+SUM(R46:R48)</f>
         <v>115.60599999999999</v>
       </c>
-      <c r="S50" s="4"/>
+      <c r="S50" s="4">
+        <f t="shared" si="100"/>
+        <v>117.607</v>
+      </c>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -6763,7 +6832,9 @@
       <c r="R51" s="4">
         <v>142.268</v>
       </c>
-      <c r="S51" s="4"/>
+      <c r="S51" s="4">
+        <v>165.87700000000001</v>
+      </c>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -6836,7 +6907,9 @@
       <c r="R52" s="4">
         <v>84.718999999999994</v>
       </c>
-      <c r="S52" s="4"/>
+      <c r="S52" s="4">
+        <v>91.635999999999996</v>
+      </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -6910,7 +6983,10 @@
       <c r="R53" s="4">
         <v>6.7519999999999998</v>
       </c>
-      <c r="S53" s="4"/>
+      <c r="S53" s="4">
+        <f>7.471</f>
+        <v>7.4710000000000001</v>
+      </c>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -6982,7 +7058,9 @@
       <c r="R54" s="4">
         <v>110.736</v>
       </c>
-      <c r="S54" s="4"/>
+      <c r="S54" s="4">
+        <v>116.907</v>
+      </c>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -7070,10 +7148,13 @@
         <v>309.68600000000004</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" ref="R55" si="104">+SUM(R51:R54)</f>
+        <f t="shared" ref="R55:S55" si="104">+SUM(R51:R54)</f>
         <v>344.47500000000002</v>
       </c>
-      <c r="S55" s="4"/>
+      <c r="S55" s="4">
+        <f t="shared" si="104"/>
+        <v>381.89100000000002</v>
+      </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -7149,7 +7230,9 @@
       <c r="R56" s="4">
         <v>0.51900000000000002</v>
       </c>
-      <c r="S56" s="4"/>
+      <c r="S56" s="4">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -7182,65 +7265,68 @@
       <c r="AW56" s="4"/>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="28">
         <f t="shared" ref="C57:E57" si="105">+C50+C55+C56</f>
         <v>0</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="28">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="28">
         <f t="shared" si="105"/>
         <v>358.96200000000005</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="28">
         <f>+F50+F55+F56</f>
         <v>433.34200000000004</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="28">
         <f>+G50+G55+G56</f>
         <v>394.16800000000001</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="28">
         <f>+H50+H55+H56</f>
         <v>0</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4">
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28">
         <f t="shared" ref="L57:N57" si="106">+L50+L55+L56</f>
         <v>328.62699999999995</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="28">
         <f t="shared" si="106"/>
         <v>331.95899999999995</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="28">
         <f t="shared" si="106"/>
         <v>307.87800000000004</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="28">
         <f>+O50+O55+O56</f>
         <v>325.63300000000004</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="28">
         <f>+P50+P55+P56</f>
         <v>382.77300000000002</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="28">
         <f>+Q50+Q55+Q56</f>
         <v>433.34200000000004</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="28">
         <f>+R50+R55+R56</f>
         <v>460.6</v>
       </c>
-      <c r="S57" s="4"/>
+      <c r="S57" s="28">
+        <f>+S50+S55+S56</f>
+        <v>500.10100000000006</v>
+      </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -7312,7 +7398,9 @@
       <c r="R58" s="4">
         <v>261.048</v>
       </c>
-      <c r="S58" s="4"/>
+      <c r="S58" s="4">
+        <v>282.279</v>
+      </c>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -7384,7 +7472,9 @@
       <c r="R59" s="4">
         <v>1.496</v>
       </c>
-      <c r="S59" s="4"/>
+      <c r="S59" s="4">
+        <v>1.7230000000000001</v>
+      </c>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
@@ -7456,7 +7546,9 @@
       <c r="R60" s="4">
         <v>15.007</v>
       </c>
-      <c r="S60" s="4"/>
+      <c r="S60" s="4">
+        <v>12.847</v>
+      </c>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -7528,7 +7620,9 @@
       <c r="R61" s="4">
         <v>53.598999999999997</v>
       </c>
-      <c r="S61" s="4"/>
+      <c r="S61" s="4">
+        <v>55.892000000000003</v>
+      </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -7602,7 +7696,9 @@
       <c r="R62" s="4">
         <v>16.056000000000001</v>
       </c>
-      <c r="S62" s="4"/>
+      <c r="S62" s="4">
+        <v>12.127000000000001</v>
+      </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -7674,7 +7770,9 @@
       <c r="R63" s="4">
         <v>103.119</v>
       </c>
-      <c r="S63" s="4"/>
+      <c r="S63" s="4">
+        <v>124.33</v>
+      </c>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -7748,7 +7846,9 @@
       <c r="R64" s="4">
         <v>10.273999999999999</v>
       </c>
-      <c r="S64" s="4"/>
+      <c r="S64" s="4">
+        <v>10.903</v>
+      </c>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
@@ -7820,7 +7920,9 @@
       <c r="R65" s="4">
         <v>0</v>
       </c>
-      <c r="S65" s="4"/>
+      <c r="S65" s="4">
+        <v>0</v>
+      </c>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -7904,14 +8006,17 @@
         <v>177.518</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" ref="Q66:R66" si="109">+SUM(Q59:Q65)</f>
+        <f t="shared" ref="Q66:S66" si="109">+SUM(Q59:Q65)</f>
         <v>201.16399999999999</v>
       </c>
       <c r="R66" s="4">
         <f t="shared" si="109"/>
         <v>199.55099999999999</v>
       </c>
-      <c r="S66" s="4"/>
+      <c r="S66" s="4">
+        <f t="shared" si="109"/>
+        <v>217.82199999999997</v>
+      </c>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -7944,65 +8049,68 @@
       <c r="AW66" s="4"/>
     </row>
     <row r="67" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="28">
         <f t="shared" ref="C67:E67" si="110">+C66+C58</f>
         <v>0</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="28">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="28">
         <f t="shared" si="110"/>
         <v>358.96299999999997</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="28">
         <f>+F66+F58</f>
         <v>433.34199999999998</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="28">
         <f>+G66+G58</f>
         <v>394.16899999999998</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="28">
         <f>+H66+H58</f>
         <v>0</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4">
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28">
         <f t="shared" ref="L67:P67" si="111">+L66+L58</f>
         <v>328.62699999999995</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="28">
         <f t="shared" si="111"/>
         <v>331.959</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="28">
         <f t="shared" si="111"/>
         <v>307.87799999999999</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="28">
         <f t="shared" si="111"/>
         <v>325.63299999999998</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="28">
         <f t="shared" si="111"/>
         <v>382.77300000000002</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="28">
         <f>+Q66+Q58</f>
         <v>433.34199999999998</v>
       </c>
-      <c r="R67" s="4">
-        <f t="shared" ref="R67" si="112">+R66+R58</f>
+      <c r="R67" s="28">
+        <f t="shared" ref="R67:S67" si="112">+R66+R58</f>
         <v>460.59899999999999</v>
       </c>
-      <c r="S67" s="4"/>
+      <c r="S67" s="28">
+        <f t="shared" si="112"/>
+        <v>500.101</v>
+      </c>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -8196,7 +8304,9 @@
       <c r="R70" s="4">
         <v>41.973999999999997</v>
       </c>
-      <c r="S70" s="4"/>
+      <c r="S70" s="4">
+        <v>37.023000000000003</v>
+      </c>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -8268,7 +8378,9 @@
       <c r="R71" s="4">
         <v>0</v>
       </c>
-      <c r="S71" s="4"/>
+      <c r="S71" s="96">
+        <v>0</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -8338,7 +8450,9 @@
       <c r="R72" s="4">
         <v>20.407</v>
       </c>
-      <c r="S72" s="4"/>
+      <c r="S72" s="4">
+        <v>20.417999999999999</v>
+      </c>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
@@ -8408,7 +8522,9 @@
       <c r="R73" s="4">
         <v>0</v>
       </c>
-      <c r="S73" s="4"/>
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
@@ -8478,7 +8594,9 @@
       <c r="R74" s="4">
         <v>0</v>
       </c>
-      <c r="S74" s="4"/>
+      <c r="S74" s="4">
+        <v>-1.708</v>
+      </c>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -8548,7 +8666,9 @@
       <c r="R75" s="4">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="S75" s="4"/>
+      <c r="S75" s="96">
+        <v>3.9E-2</v>
+      </c>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -8618,7 +8738,9 @@
       <c r="R76" s="4">
         <v>0</v>
       </c>
-      <c r="S76" s="4"/>
+      <c r="S76" s="4">
+        <v>0</v>
+      </c>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -8688,7 +8810,9 @@
       <c r="R77" s="4">
         <v>-1.7310000000000001</v>
       </c>
-      <c r="S77" s="4"/>
+      <c r="S77" s="4">
+        <v>-1.5880000000000001</v>
+      </c>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -8758,7 +8882,9 @@
       <c r="R78" s="4">
         <v>-9.26</v>
       </c>
-      <c r="S78" s="4"/>
+      <c r="S78" s="4">
+        <v>-16.462</v>
+      </c>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -8828,7 +8954,9 @@
       <c r="R79" s="4">
         <v>0</v>
       </c>
-      <c r="S79" s="4"/>
+      <c r="S79" s="4">
+        <v>0</v>
+      </c>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -8898,7 +9026,9 @@
       <c r="R80" s="4">
         <v>1.1559999999999999</v>
       </c>
-      <c r="S80" s="4"/>
+      <c r="S80" s="4">
+        <v>4.4560000000000004</v>
+      </c>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -8968,7 +9098,9 @@
       <c r="R81" s="4">
         <v>0</v>
       </c>
-      <c r="S81" s="4"/>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -9038,7 +9170,9 @@
       <c r="R82" s="4">
         <v>18.916</v>
       </c>
-      <c r="S82" s="4"/>
+      <c r="S82" s="4">
+        <v>14.268000000000001</v>
+      </c>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -9108,7 +9242,9 @@
       <c r="R83" s="4">
         <v>2.8769999999999998</v>
       </c>
-      <c r="S83" s="4"/>
+      <c r="S83" s="4">
+        <v>-1.2430000000000001</v>
+      </c>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
@@ -9178,7 +9314,9 @@
       <c r="R84" s="4">
         <v>-0.67</v>
       </c>
-      <c r="S84" s="4"/>
+      <c r="S84" s="4">
+        <v>1.5369999999999999</v>
+      </c>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -9248,7 +9386,9 @@
       <c r="R85" s="4">
         <v>2.4849999999999999</v>
       </c>
-      <c r="S85" s="4"/>
+      <c r="S85" s="4">
+        <v>-28.611000000000001</v>
+      </c>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -9318,7 +9458,9 @@
       <c r="R86" s="4">
         <v>-3.0640000000000001</v>
       </c>
-      <c r="S86" s="4"/>
+      <c r="S86" s="4">
+        <v>19.295999999999999</v>
+      </c>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
@@ -9406,10 +9548,13 @@
         <v>46.707999999999998</v>
       </c>
       <c r="R87" s="4">
-        <f t="shared" ref="R87" si="117">+R85+R86</f>
+        <f t="shared" ref="R87:S87" si="117">+R85+R86</f>
         <v>-0.57900000000000018</v>
       </c>
-      <c r="S87" s="4"/>
+      <c r="S87" s="4">
+        <f t="shared" si="117"/>
+        <v>-9.3150000000000013</v>
+      </c>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
@@ -9497,10 +9642,13 @@
         <v>117.78299999999996</v>
       </c>
       <c r="R88" s="28">
-        <f t="shared" ref="R88" si="120">+SUM(R70:R84)+R87</f>
+        <f t="shared" ref="R88:S88" si="120">+SUM(R70:R84)+R87</f>
         <v>73.076999999999998</v>
       </c>
-      <c r="S88" s="4"/>
+      <c r="S88" s="28">
+        <f t="shared" si="120"/>
+        <v>47.425000000000011</v>
+      </c>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
@@ -9571,7 +9719,9 @@
       <c r="R89" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S89" s="4"/>
+      <c r="S89" s="4">
+        <v>0.41299999999999998</v>
+      </c>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
@@ -9642,7 +9792,10 @@
         <f>0.158+2.67</f>
         <v>2.8279999999999998</v>
       </c>
-      <c r="S90" s="4"/>
+      <c r="S90" s="96">
+        <f>0.071+2.872</f>
+        <v>2.9430000000000001</v>
+      </c>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
@@ -9712,7 +9865,9 @@
       <c r="R91" s="4">
         <v>-11.353</v>
       </c>
-      <c r="S91" s="4"/>
+      <c r="S91" s="4">
+        <v>-20.039000000000001</v>
+      </c>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
@@ -9785,7 +9940,9 @@
       <c r="R92" s="4">
         <v>-1.879</v>
       </c>
-      <c r="S92" s="4"/>
+      <c r="S92" s="4">
+        <v>-2.6139999999999999</v>
+      </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
@@ -9873,10 +10030,13 @@
         <v>-19.364999999999998</v>
       </c>
       <c r="R93" s="28">
-        <f t="shared" ref="R93" si="123">+SUM(R89:R92)</f>
+        <f t="shared" ref="R93:S93" si="123">+SUM(R89:R92)</f>
         <v>-10.397</v>
       </c>
-      <c r="S93" s="4"/>
+      <c r="S93" s="28">
+        <f t="shared" si="123"/>
+        <v>-19.297000000000001</v>
+      </c>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
@@ -9946,7 +10106,9 @@
       <c r="R94" s="4">
         <v>-1.9810000000000001</v>
       </c>
-      <c r="S94" s="4"/>
+      <c r="S94" s="4">
+        <v>-6.5110000000000001</v>
+      </c>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
@@ -10016,7 +10178,9 @@
       <c r="R95" s="4">
         <v>2.2360000000000002</v>
       </c>
-      <c r="S95" s="4"/>
+      <c r="S95" s="4">
+        <v>6.1390000000000002</v>
+      </c>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -10086,7 +10250,9 @@
       <c r="R96" s="4">
         <v>-13.6</v>
       </c>
-      <c r="S96" s="4"/>
+      <c r="S96" s="4">
+        <v>-16.327999999999999</v>
+      </c>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
@@ -10156,7 +10322,9 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" s="4"/>
+      <c r="S97" s="4">
+        <v>0</v>
+      </c>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
@@ -10228,7 +10396,9 @@
       <c r="R98" s="4">
         <v>-4.7869999999999999</v>
       </c>
-      <c r="S98" s="4"/>
+      <c r="S98" s="4">
+        <v>-3.9279999999999999</v>
+      </c>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
@@ -10298,7 +10468,9 @@
       <c r="R99" s="4">
         <v>-0.94299999999999995</v>
       </c>
-      <c r="S99" s="4"/>
+      <c r="S99" s="4">
+        <v>-1.4370000000000001</v>
+      </c>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
@@ -10386,10 +10558,13 @@
         <v>-32.5</v>
       </c>
       <c r="R100" s="28">
-        <f t="shared" ref="R100" si="126">+SUM(R94:R99)</f>
+        <f t="shared" ref="R100:S100" si="126">+SUM(R94:R99)</f>
         <v>-19.074999999999999</v>
       </c>
-      <c r="S100" s="28"/>
+      <c r="S100" s="28">
+        <f t="shared" si="126"/>
+        <v>-22.065000000000001</v>
+      </c>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
@@ -10459,7 +10634,9 @@
       <c r="R101" s="4">
         <v>0.05</v>
       </c>
-      <c r="S101" s="4"/>
+      <c r="S101" s="4">
+        <v>0.109</v>
+      </c>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
@@ -10547,10 +10724,13 @@
         <v>65.979999999999961</v>
       </c>
       <c r="R102" s="28">
-        <f t="shared" ref="R102" si="129">+R88+R93+R100+R101</f>
+        <f>+R88+R93+R100+R101</f>
         <v>43.655000000000001</v>
       </c>
-      <c r="S102" s="4"/>
+      <c r="S102" s="28">
+        <f t="shared" ref="S102" si="129">+S88+S93+S100+S101</f>
+        <v>6.1720000000000095</v>
+      </c>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
@@ -10626,7 +10806,10 @@
         <f>+Q104</f>
         <v>67.082999999999956</v>
       </c>
-      <c r="S103" s="4"/>
+      <c r="S103" s="4">
+        <f>+R104</f>
+        <v>110.73799999999996</v>
+      </c>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
@@ -10703,7 +10886,10 @@
         <f>+R102+R103</f>
         <v>110.73799999999996</v>
       </c>
-      <c r="S104" s="4"/>
+      <c r="S104" s="4">
+        <f>+S102+S103</f>
+        <v>116.90999999999997</v>
+      </c>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
@@ -55643,10 +55829,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55719,7 +55905,9 @@
       <c r="I3" s="37">
         <v>74.5</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="38">
+        <v>95</v>
+      </c>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -55753,7 +55941,9 @@
       <c r="I4" s="39">
         <v>6.8125980000000004</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="39">
+        <v>6.8125980000000004</v>
+      </c>
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -55788,7 +55978,10 @@
         <f>+I3*I4</f>
         <v>507.53855100000004</v>
       </c>
-      <c r="J5" s="38"/>
+      <c r="J5" s="38">
+        <f>+J3*J4</f>
+        <v>647.19681000000003</v>
+      </c>
       <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -55823,7 +56016,10 @@
         <f>+Model!R62-Model!R54</f>
         <v>-94.68</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="38">
+        <f>+Model!S62-Model!S54</f>
+        <v>-104.78</v>
+      </c>
       <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -55858,7 +56054,10 @@
         <f>+I5+I6</f>
         <v>412.85855100000003</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="38">
+        <f>+J5+J6</f>
+        <v>542.41681000000005</v>
+      </c>
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -55921,6 +56120,10 @@
         <f>+Model!R50+Model!R52+Model!R53-Model!R63</f>
         <v>103.958</v>
       </c>
+      <c r="J10" s="40">
+        <f>+Model!S50+Model!S52+Model!S53-Model!S63</f>
+        <v>92.384</v>
+      </c>
       <c r="L10" s="41" t="s">
         <v>146</v>
       </c>
@@ -55957,6 +56160,10 @@
         <f>+Model!R47+Model!R51+Model!R52-Model!R63+Model!R46</f>
         <v>239.43799999999999</v>
       </c>
+      <c r="J11" s="40">
+        <f>+Model!S47+Model!S51+Model!S52-Model!S63+Model!S46</f>
+        <v>250.75400000000002</v>
+      </c>
       <c r="L11" s="41" t="s">
         <v>148</v>
       </c>
@@ -55993,6 +56200,10 @@
         <f>+Model!R47+Model!R51+Model!R52-Model!R63</f>
         <v>231.066</v>
       </c>
+      <c r="J12" s="40">
+        <f>+Model!S47+Model!S51+Model!S52-Model!S63</f>
+        <v>243.32400000000001</v>
+      </c>
       <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -56027,6 +56238,10 @@
         <f>+I12+Model!R54+Model!R49+Model!R48+Model!R56</f>
         <v>342.35700000000003</v>
       </c>
+      <c r="J13" s="40">
+        <f>+J12+Model!S54+Model!S49+Model!S48+Model!S56</f>
+        <v>360.87</v>
+      </c>
       <c r="L13" s="41" t="s">
         <v>151</v>
       </c>
@@ -56063,6 +56278,10 @@
         <f>+(Model!R24+Model!R22)*(1-Model!R43)</f>
         <v>57.110400000000041</v>
       </c>
+      <c r="J14" s="40">
+        <f>+(Model!S24+Model!S22)*(1-Model!S43)</f>
+        <v>50.884559999999958</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>153</v>
       </c>
@@ -56095,6 +56314,10 @@
         <f>+I13-H13</f>
         <v>38.192000000000064</v>
       </c>
+      <c r="J15" s="40">
+        <f>+J13-I13</f>
+        <v>18.512999999999977</v>
+      </c>
       <c r="L15" s="41" t="s">
         <v>155</v>
       </c>
@@ -56127,6 +56350,10 @@
         <f>+I14-I15</f>
         <v>18.918399999999977</v>
       </c>
+      <c r="J16" s="40">
+        <f>+J14-J15</f>
+        <v>32.371559999999981</v>
+      </c>
       <c r="L16" s="41" t="s">
         <v>157</v>
       </c>
@@ -56159,6 +56386,10 @@
         <f>+I15/I14</f>
         <v>0.66873984423152411</v>
       </c>
+      <c r="J17" s="23">
+        <f>+J15/J14</f>
+        <v>0.36382352525009537</v>
+      </c>
       <c r="L17" s="41" t="s">
         <v>159</v>
       </c>
@@ -56211,6 +56442,10 @@
         <f>+Model!R16/Model!R57</f>
         <v>1.3852627008250109</v>
       </c>
+      <c r="J21" s="40">
+        <f>+Model!S16/Model!S57</f>
+        <v>1.3628107122361282</v>
+      </c>
       <c r="L21" s="41" t="s">
         <v>164</v>
       </c>
@@ -56247,6 +56482,10 @@
         <f>+Model!R30/Model!R58</f>
         <v>0.16278615427047924</v>
       </c>
+      <c r="J22" s="23">
+        <f>+Model!S30/Model!S58</f>
+        <v>0.13115747186294388</v>
+      </c>
       <c r="L22" s="41" t="s">
         <v>166</v>
       </c>
@@ -56283,6 +56522,10 @@
         <f>+Model!R24/Ratios!I10</f>
         <v>0.56670001346697774</v>
       </c>
+      <c r="J23" s="23">
+        <f>+Model!S24/Ratios!J10</f>
+        <v>0.5439794769657077</v>
+      </c>
       <c r="L23" s="41" t="s">
         <v>168</v>
       </c>
@@ -56319,6 +56562,10 @@
         <f>+I14/I11</f>
         <v>0.23851853089317504</v>
       </c>
+      <c r="J24" s="23">
+        <f>+J14/J11</f>
+        <v>0.20292621453695636</v>
+      </c>
       <c r="L24" s="41" t="s">
         <v>170</v>
       </c>
@@ -56354,6 +56601,10 @@
       <c r="I25" s="23">
         <f>+I14/I12</f>
         <v>0.24716055153073166</v>
+      </c>
+      <c r="J25" s="23">
+        <f>+J14/J12</f>
+        <v>0.20912265127977492</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>172</v>
@@ -56501,7 +56752,10 @@
         <f>+Model!R52/Model!R16*360</f>
         <v>47.799928532470702</v>
       </c>
-      <c r="J41" s="43"/>
+      <c r="J41" s="40">
+        <f>+Model!S52/Model!S16*360</f>
+        <v>48.403343589472705</v>
+      </c>
       <c r="L41" s="41" t="s">
         <v>196</v>
       </c>
@@ -56538,7 +56792,10 @@
         <f>+Model!R63/Model!R16*360</f>
         <v>58.181527524402398</v>
       </c>
-      <c r="J42" s="43"/>
+      <c r="J42" s="40">
+        <f>+Model!S63/Model!S16*360</f>
+        <v>65.672745520091908</v>
+      </c>
       <c r="L42" s="41" t="s">
         <v>198</v>
       </c>
@@ -56575,6 +56832,10 @@
         <f>+Model!R51/Model!R57</f>
         <v>0.30887537993920972</v>
       </c>
+      <c r="J43" s="23">
+        <f>+Model!S51/Model!S57</f>
+        <v>0.3316869992261563</v>
+      </c>
       <c r="L43" s="41" t="s">
         <v>200</v>
       </c>
@@ -56611,6 +56872,10 @@
         <f>+Model!R19/Model!R51</f>
         <v>2.3209998031883488</v>
       </c>
+      <c r="J44" s="40">
+        <f>+Model!S19/Model!S51</f>
+        <v>2.1742917945224471</v>
+      </c>
       <c r="L44" s="41" t="s">
         <v>202</v>
       </c>
@@ -56647,6 +56912,10 @@
         <f>360/I44</f>
         <v>155.10557110150089</v>
       </c>
+      <c r="J45" s="40">
+        <f>360/J44</f>
+        <v>165.57115328629061</v>
+      </c>
       <c r="L45" s="41" t="s">
         <v>204</v>
       </c>
@@ -56682,6 +56951,10 @@
       <c r="I46" s="40">
         <f>+I41+I45-I42</f>
         <v>144.72397210956922</v>
+      </c>
+      <c r="J46" s="40">
+        <f>+J41+J45-J42</f>
+        <v>148.3017513556714</v>
       </c>
       <c r="L46" s="41" t="s">
         <v>206</v>
@@ -56737,7 +57010,10 @@
         <f>+I5/Model!R30</f>
         <v>11.94348866925519</v>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="40">
+        <f>+J5/Model!S30</f>
+        <v>17.480939145936343</v>
+      </c>
       <c r="L50" s="41" t="s">
         <v>210</v>
       </c>
@@ -56756,11 +57032,11 @@
       </c>
       <c r="E51" s="40">
         <f>+E50/((Model!S16/Model!R16-1)*100)</f>
-        <v>1.2773242755482583</v>
+        <v>2.2115219827235437</v>
       </c>
       <c r="F51" s="40">
         <f>+F50/((Model!T16/Model!S16-1)*100)</f>
-        <v>2.5645019746143318</v>
+        <v>1.4885828149973144</v>
       </c>
       <c r="G51" s="40">
         <f>+G50/((Model!U16/Model!T16-1)*100)</f>
@@ -56774,7 +57050,10 @@
         <f>+I50/((Model!W16/Model!V16-1)*100)</f>
         <v>2.7491977220784567</v>
       </c>
-      <c r="J51" s="43"/>
+      <c r="J51" s="40">
+        <f>+J50/((Model!X16/Model!W16-1)*100)</f>
+        <v>-0.17480939145936344</v>
+      </c>
       <c r="L51" s="41" t="s">
         <v>212</v>
       </c>
@@ -56811,7 +57090,10 @@
         <f>+I5/Model!R58</f>
         <v>1.9442345890410961</v>
       </c>
-      <c r="J52" s="43"/>
+      <c r="J52" s="43">
+        <f>+J5/Model!S58</f>
+        <v>2.2927557841709798</v>
+      </c>
       <c r="L52" s="41" t="s">
         <v>214</v>
       </c>
@@ -56941,8 +57223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B117C7-A73A-47CF-A62F-918BBB7B228C}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56999,14 +57281,14 @@
       </c>
       <c r="J2" s="47">
         <f>+Main!H2</f>
-        <v>92.6</v>
+        <v>95.4</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>269</v>
       </c>
       <c r="O2" s="47">
         <f>+Main!H2</f>
-        <v>92.6</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -57021,7 +57303,7 @@
       </c>
       <c r="J3" s="49">
         <f ca="1">V61</f>
-        <v>101.76078375283252</v>
+        <v>102.83908002363029</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>329</v>
@@ -57043,14 +57325,14 @@
       </c>
       <c r="J4" s="52">
         <f ca="1">J3/J2-1</f>
-        <v>9.8928550246571545E-2</v>
+        <v>7.7977778025474676E-2</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>273</v>
       </c>
       <c r="O4" s="52">
         <f>O3/O2-1</f>
-        <v>5.7354211663066978E-2</v>
+        <v>2.6320754716981032E-2</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -57459,7 +57741,7 @@
       </c>
       <c r="N24" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>713.35104848112758</v>
+        <v>681.54300000000001</v>
       </c>
       <c r="O24" s="38">
         <f t="shared" ca="1" si="2"/>
@@ -57526,11 +57808,11 @@
       </c>
       <c r="N25" s="65" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">OFFSET(N25,$E$10,,)</f>
-        <v>0.11801396826767663</v>
+        <v>6.8162156062515189E-2</v>
       </c>
       <c r="O25" s="65" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">OFFSET(O25,$E$10,,)</f>
-        <v>6.9028155069783104E-2</v>
+        <v>0.11892038400346738</v>
       </c>
       <c r="P25" s="65" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">OFFSET(P25,$E$10,,)</f>
@@ -57622,11 +57904,11 @@
       </c>
       <c r="N27" s="66">
         <f>+Model!S40</f>
-        <v>0.11801396826767663</v>
+        <v>6.8162156062515189E-2</v>
       </c>
       <c r="O27" s="66">
         <f>+Model!T40</f>
-        <v>6.9028155069783104E-2</v>
+        <v>0.11892038400346738</v>
       </c>
       <c r="P27" s="66">
         <f>+Model!U40</f>
@@ -57733,7 +58015,7 @@
       </c>
       <c r="N30" s="38">
         <f t="shared" ca="1" si="4"/>
-        <v>49.934573393678939</v>
+        <v>47.708010000000002</v>
       </c>
       <c r="O30" s="38">
         <f t="shared" ca="1" si="4"/>
@@ -57994,7 +58276,7 @@
       </c>
       <c r="N36" s="38">
         <f t="shared" ca="1" si="6"/>
-        <v>13.981680550230104</v>
+        <v>13.358242800000001</v>
       </c>
       <c r="O36" s="38">
         <f t="shared" ca="1" si="6"/>
@@ -58129,7 +58411,7 @@
       </c>
       <c r="N39" s="69">
         <f t="shared" ca="1" si="9"/>
-        <v>35.952892843448836</v>
+        <v>34.349767200000002</v>
       </c>
       <c r="O39" s="69">
         <f t="shared" ca="1" si="9"/>
@@ -58198,7 +58480,7 @@
       </c>
       <c r="N41" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v>22.827233551396084</v>
+        <v>21.809376</v>
       </c>
       <c r="O41" s="38">
         <f t="shared" ca="1" si="10"/>
@@ -58330,7 +58612,7 @@
       </c>
       <c r="N44" s="38">
         <f t="shared" ca="1" si="12"/>
-        <v>-24.25393564835834</v>
+        <v>-23.172462000000003</v>
       </c>
       <c r="O44" s="38">
         <f t="shared" ca="1" si="12"/>
@@ -58458,7 +58740,7 @@
       </c>
       <c r="N47" s="38">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71335104848112763</v>
+        <v>0.68154300000000001</v>
       </c>
       <c r="O47" s="38">
         <f t="shared" ca="1" si="14"/>
@@ -58590,7 +58872,7 @@
       </c>
       <c r="N50" s="75">
         <f t="shared" ca="1" si="17"/>
-        <v>35.239541794967707</v>
+        <v>33.668224199999997</v>
       </c>
       <c r="O50" s="75">
         <f t="shared" ca="1" si="17"/>
@@ -58645,7 +58927,7 @@
       </c>
       <c r="N51" s="79">
         <f t="shared" ref="N51:U51" ca="1" si="18">N50/((1+$E$17)^N52)</f>
-        <v>31.39746750222789</v>
+        <v>29.99746652007202</v>
       </c>
       <c r="O51" s="79">
         <f t="shared" ca="1" si="18"/>
@@ -58735,7 +59017,7 @@
       <c r="Q53" s="44"/>
       <c r="V53" s="38">
         <f ca="1">SUM(M51:V51)</f>
-        <v>266.02254946603529</v>
+        <v>264.62254848387943</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -58808,7 +59090,7 @@
       <c r="U56" s="84"/>
       <c r="V56" s="85">
         <f ca="1">V53+V55</f>
-        <v>597.22131187297941</v>
+        <v>595.82131089082361</v>
       </c>
       <c r="X56" s="15"/>
     </row>
@@ -58822,7 +59104,7 @@
       <c r="Q57" s="44"/>
       <c r="V57" s="86">
         <f>+Main!H5</f>
-        <v>110.125</v>
+        <v>116.907</v>
       </c>
       <c r="X57" s="23"/>
     </row>
@@ -58851,7 +59133,7 @@
       <c r="U58" s="82"/>
       <c r="V58" s="87">
         <f>+Main!H6</f>
-        <v>14.090999999999999</v>
+        <v>12.127000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -58864,7 +59146,7 @@
       <c r="Q59" s="44"/>
       <c r="V59" s="86">
         <f ca="1">V56+V57-V58</f>
-        <v>693.25531187297941</v>
+        <v>700.6013108908237</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -58901,7 +59183,7 @@
       </c>
       <c r="V61" s="86">
         <f ca="1">V59/V60</f>
-        <v>101.76078375283252</v>
+        <v>102.83908002363029</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -58934,451 +59216,451 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B67" s="88"/>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="90"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="102"/>
       <c r="M67" s="88"/>
-      <c r="N67" s="91" t="s">
+      <c r="N67" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="O67" s="91"/>
-      <c r="P67" s="91"/>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="92"/>
+      <c r="O67" s="99"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="99"/>
+      <c r="R67" s="99"/>
+      <c r="S67" s="99"/>
+      <c r="T67" s="99"/>
+      <c r="U67" s="100"/>
     </row>
     <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C68" s="94">
+      <c r="C68" s="89">
         <f ca="1">+J3</f>
-        <v>101.76078375283252</v>
-      </c>
-      <c r="D68" s="95">
+        <v>102.83908002363029</v>
+      </c>
+      <c r="D68" s="90">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E68" s="95">
+      <c r="E68" s="90">
         <v>0.02</v>
       </c>
-      <c r="F68" s="95">
+      <c r="F68" s="90">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G68" s="95">
+      <c r="G68" s="90">
         <v>0.03</v>
       </c>
-      <c r="H68" s="95">
+      <c r="H68" s="90">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I68" s="95">
+      <c r="I68" s="90">
         <v>0.04</v>
       </c>
-      <c r="J68" s="95">
+      <c r="J68" s="90">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M68" s="93" t="s">
+      <c r="M68" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="N68" s="94">
+      <c r="N68" s="89">
         <f ca="1">+J3</f>
-        <v>101.76078375283252</v>
-      </c>
-      <c r="O68" s="95">
+        <v>102.83908002363029</v>
+      </c>
+      <c r="O68" s="90">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P68" s="95">
+      <c r="P68" s="90">
         <v>0.08</v>
       </c>
-      <c r="Q68" s="95">
+      <c r="Q68" s="90">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R68" s="95">
+      <c r="R68" s="90">
         <v>0.09</v>
       </c>
-      <c r="S68" s="95">
+      <c r="S68" s="90">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="T68" s="95">
+      <c r="T68" s="90">
         <v>0.1</v>
       </c>
-      <c r="U68" s="95">
+      <c r="U68" s="90">
         <v>0.105</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="93"/>
-      <c r="C69" s="96">
+      <c r="B69" s="97"/>
+      <c r="C69" s="91">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D69" s="40">
         <f t="dataTable" ref="D69:J75" dt2D="1" dtr="1" r1="E18" r2="E17" ca="1"/>
-        <v>124.39166033056922</v>
+        <v>125.46559976298869</v>
       </c>
       <c r="E69" s="40">
-        <v>127.27417385887729</v>
+        <v>128.34811329129676</v>
       </c>
       <c r="F69" s="40">
-        <v>130.82116290832124</v>
-      </c>
-      <c r="G69" s="97">
-        <v>135.3174027022452</v>
+        <v>131.89510234074072</v>
+      </c>
+      <c r="G69" s="92">
+        <v>136.39134213466468</v>
       </c>
       <c r="H69" s="40">
-        <v>141.237518612889</v>
+        <v>142.31145804530848</v>
       </c>
       <c r="I69" s="40">
-        <v>149.43583631028463</v>
+        <v>150.50977574270408</v>
       </c>
       <c r="J69" s="40">
-        <v>161.6210071344959</v>
-      </c>
-      <c r="M69" s="93"/>
-      <c r="N69" s="96">
+        <v>162.69494656691535</v>
+      </c>
+      <c r="M69" s="97"/>
+      <c r="N69" s="91">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O69" s="40">
         <f t="dataTable" ref="O69:U75" dt2D="1" dtr="1" r1="E19" r2="E17" ca="1"/>
-        <v>127.38541000245579</v>
+        <v>128.45934943487524</v>
       </c>
       <c r="P69" s="40">
-        <v>130.3599072648768</v>
+        <v>131.43384669729627</v>
       </c>
       <c r="Q69" s="40">
-        <v>132.98446367289537</v>
-      </c>
-      <c r="R69" s="97">
-        <v>135.3174027022452</v>
+        <v>134.05840310531485</v>
+      </c>
+      <c r="R69" s="92">
+        <v>136.39134213466468</v>
       </c>
       <c r="S69" s="40">
-        <v>137.40476920218978</v>
+        <v>138.47870863460926</v>
       </c>
       <c r="T69" s="40">
-        <v>139.28339905213988</v>
+        <v>140.35733848455936</v>
       </c>
       <c r="U69" s="40">
-        <v>140.98311177352335</v>
+        <v>142.0570512059428</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="93"/>
-      <c r="C70" s="96">
+      <c r="B70" s="97"/>
+      <c r="C70" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D70" s="40">
-        <v>114.48369971314894</v>
+        <v>115.55910839739286</v>
       </c>
       <c r="E70" s="40">
-        <v>116.37035130575759</v>
+        <v>117.44575999000155</v>
       </c>
       <c r="F70" s="40">
-        <v>118.62851745168416</v>
-      </c>
-      <c r="G70" s="97">
-        <v>121.39751610842288</v>
+        <v>119.70392613592809</v>
+      </c>
+      <c r="G70" s="92">
+        <v>122.47292479266683</v>
       </c>
       <c r="H70" s="40">
-        <v>124.89627549489322</v>
+        <v>125.97168417913716</v>
       </c>
       <c r="I70" s="40">
-        <v>129.48967597596101</v>
+        <v>130.56508466020495</v>
       </c>
       <c r="J70" s="40">
-        <v>135.83450220838472</v>
-      </c>
-      <c r="M70" s="93"/>
-      <c r="N70" s="96">
+        <v>136.90991089262863</v>
+      </c>
+      <c r="M70" s="97"/>
+      <c r="N70" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O70" s="40">
-        <v>114.75908053567257</v>
+        <v>115.83448921991651</v>
       </c>
       <c r="P70" s="40">
-        <v>117.24849387545393</v>
+        <v>118.32390255969788</v>
       </c>
       <c r="Q70" s="40">
-        <v>119.44503505761395</v>
-      </c>
-      <c r="R70" s="97">
-        <v>121.39751610842288</v>
+        <v>120.5204437418579</v>
+      </c>
+      <c r="R70" s="92">
+        <v>122.47292479266683</v>
       </c>
       <c r="S70" s="40">
-        <v>123.14447283809402</v>
+        <v>124.21988152233797</v>
       </c>
       <c r="T70" s="40">
-        <v>124.71673389479804</v>
+        <v>125.79214257904198</v>
       </c>
       <c r="U70" s="40">
-        <v>126.13925580324454</v>
+        <v>127.21466448748846</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="93"/>
-      <c r="C71" s="96">
+      <c r="B71" s="97"/>
+      <c r="C71" s="91">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D71" s="40">
-        <v>106.21580375595532</v>
+        <v>107.29266462759664</v>
       </c>
       <c r="E71" s="40">
-        <v>107.42562116739757</v>
+        <v>108.50248203903888</v>
       </c>
       <c r="F71" s="40">
-        <v>108.83629629579737</v>
-      </c>
-      <c r="G71" s="97">
-        <v>110.51478171347399</v>
+        <v>109.91315716743868</v>
+      </c>
+      <c r="G71" s="92">
+        <v>111.59164258511532</v>
       </c>
       <c r="H71" s="40">
-        <v>112.56150627890617</v>
+        <v>113.63836715054748</v>
       </c>
       <c r="I71" s="40">
-        <v>115.13428676970346</v>
+        <v>116.21114764134479</v>
       </c>
       <c r="J71" s="40">
-        <v>118.49615114854844</v>
+        <v>119.57301202018976</v>
       </c>
       <c r="K71" s="1"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="96">
+      <c r="M71" s="97"/>
+      <c r="N71" s="91">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O71" s="40">
-        <v>104.86958994136982</v>
+        <v>105.94645081301115</v>
       </c>
       <c r="P71" s="40">
-        <v>106.98653685590889</v>
+        <v>108.06339772755021</v>
       </c>
       <c r="Q71" s="40">
-        <v>108.85443119226689</v>
-      </c>
-      <c r="R71" s="97">
-        <v>110.51478171347399</v>
+        <v>109.9312920639082</v>
+      </c>
+      <c r="R71" s="92">
+        <v>111.59164258511532</v>
       </c>
       <c r="S71" s="40">
-        <v>112.00035849560666</v>
+        <v>113.07721936724798</v>
       </c>
       <c r="T71" s="40">
-        <v>113.33737759952606</v>
+        <v>114.41423847116739</v>
       </c>
       <c r="U71" s="40">
-        <v>114.54706155069125</v>
+        <v>115.62392242233257</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="93"/>
-      <c r="C72" s="96">
+      <c r="B72" s="97"/>
+      <c r="C72" s="91">
         <v>0.08</v>
       </c>
-      <c r="D72" s="97">
-        <v>99.210187636079439</v>
-      </c>
-      <c r="E72" s="97">
-        <v>99.951464087567601</v>
-      </c>
-      <c r="F72" s="97">
-        <v>100.79176077005229</v>
-      </c>
-      <c r="G72" s="97">
-        <v>101.76078375283252</v>
-      </c>
-      <c r="H72" s="97">
-        <v>102.90144180267345</v>
-      </c>
-      <c r="I72" s="97">
-        <v>104.27809806972287</v>
-      </c>
-      <c r="J72" s="97">
-        <v>105.99189464707008</v>
-      </c>
-      <c r="M72" s="93"/>
-      <c r="N72" s="96">
+      <c r="D72" s="92">
+        <v>100.2884839068772</v>
+      </c>
+      <c r="E72" s="92">
+        <v>101.02976035836535</v>
+      </c>
+      <c r="F72" s="92">
+        <v>101.87005704085004</v>
+      </c>
+      <c r="G72" s="92">
+        <v>102.83908002363029</v>
+      </c>
+      <c r="H72" s="92">
+        <v>103.97973807347121</v>
+      </c>
+      <c r="I72" s="92">
+        <v>105.35639434052061</v>
+      </c>
+      <c r="J72" s="92">
+        <v>107.07019091786783</v>
+      </c>
+      <c r="M72" s="97"/>
+      <c r="N72" s="91">
         <v>0.08</v>
       </c>
-      <c r="O72" s="97">
-        <v>96.89922047833808</v>
-      </c>
-      <c r="P72" s="97">
-        <v>98.722306706273486</v>
-      </c>
-      <c r="Q72" s="97">
-        <v>100.33091220151063</v>
-      </c>
-      <c r="R72" s="97">
-        <v>101.76078375283252</v>
-      </c>
-      <c r="S72" s="97">
-        <v>103.04014250927844</v>
-      </c>
-      <c r="T72" s="97">
-        <v>104.19156539007975</v>
-      </c>
-      <c r="U72" s="97">
-        <v>105.2333289489</v>
+      <c r="O72" s="92">
+        <v>97.977516749135816</v>
+      </c>
+      <c r="P72" s="92">
+        <v>99.80060297707125</v>
+      </c>
+      <c r="Q72" s="92">
+        <v>101.40920847230838</v>
+      </c>
+      <c r="R72" s="92">
+        <v>102.83908002363029</v>
+      </c>
+      <c r="S72" s="92">
+        <v>104.11843878007619</v>
+      </c>
+      <c r="T72" s="92">
+        <v>105.2698616608775</v>
+      </c>
+      <c r="U72" s="92">
+        <v>106.31162521969775</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="93"/>
-      <c r="C73" s="96">
+      <c r="B73" s="97"/>
+      <c r="C73" s="91">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="D73" s="40">
-        <v>93.196964721514547</v>
+        <v>94.276679873693169</v>
       </c>
       <c r="E73" s="40">
-        <v>93.609605503900113</v>
+        <v>94.689320656078735</v>
       </c>
       <c r="F73" s="40">
-        <v>94.059649398139328</v>
-      </c>
-      <c r="G73" s="97">
-        <v>94.557297252919582</v>
+        <v>95.13936455031795</v>
+      </c>
+      <c r="G73" s="92">
+        <v>95.637012405098204</v>
       </c>
       <c r="H73" s="40">
-        <v>95.116830256403148</v>
+        <v>96.19654540858177</v>
       </c>
       <c r="I73" s="40">
-        <v>95.758876791491161</v>
+        <v>96.838591943669783</v>
       </c>
       <c r="J73" s="40">
-        <v>96.514379432535293</v>
-      </c>
-      <c r="M73" s="93"/>
-      <c r="N73" s="96">
+        <v>97.594094584713901</v>
+      </c>
+      <c r="M73" s="97"/>
+      <c r="N73" s="91">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="O73" s="40">
-        <v>90.327433079796052</v>
+        <v>91.407148231974659</v>
       </c>
       <c r="P73" s="40">
-        <v>91.913632144717369</v>
+        <v>92.99334729689599</v>
       </c>
       <c r="Q73" s="40">
-        <v>93.313219554942066</v>
-      </c>
-      <c r="R73" s="97">
-        <v>94.557297252919582</v>
+        <v>94.392934707120702</v>
+      </c>
+      <c r="R73" s="92">
+        <v>95.637012405098204</v>
       </c>
       <c r="S73" s="40">
-        <v>95.670419403741562</v>
+        <v>96.750134555920184</v>
       </c>
       <c r="T73" s="40">
-        <v>96.672229339481333</v>
+        <v>97.75194449165997</v>
       </c>
       <c r="U73" s="40">
-        <v>97.578628805150672</v>
+        <v>98.658343957329294</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="93"/>
-      <c r="C74" s="96">
+      <c r="B74" s="97"/>
+      <c r="C74" s="91">
         <v>0.09</v>
       </c>
       <c r="D74" s="40">
-        <v>87.978182933709874</v>
+        <v>89.059300714382644</v>
       </c>
       <c r="E74" s="40">
-        <v>88.158360793054783</v>
+        <v>89.239478573727553</v>
       </c>
       <c r="F74" s="40">
-        <v>88.338538652399649</v>
-      </c>
-      <c r="G74" s="97">
-        <v>88.518716511744557</v>
+        <v>89.419656433072419</v>
+      </c>
+      <c r="G74" s="92">
+        <v>89.599834292417327</v>
       </c>
       <c r="H74" s="40">
-        <v>88.698894371089423</v>
+        <v>89.780012151762193</v>
       </c>
       <c r="I74" s="40">
-        <v>88.879072230434318</v>
+        <v>89.960190011107073</v>
       </c>
       <c r="J74" s="40">
-        <v>89.059250089779198</v>
-      </c>
-      <c r="M74" s="93"/>
-      <c r="N74" s="96">
+        <v>90.140367870451954</v>
+      </c>
+      <c r="M74" s="97"/>
+      <c r="N74" s="91">
         <v>0.09</v>
       </c>
       <c r="O74" s="40">
-        <v>84.807052609239946</v>
+        <v>85.888170389912716</v>
       </c>
       <c r="P74" s="40">
-        <v>86.19892657267917</v>
+        <v>87.280044353351926</v>
       </c>
       <c r="Q74" s="40">
-        <v>87.427050658066719</v>
-      </c>
-      <c r="R74" s="97">
-        <v>88.518716511744557</v>
+        <v>88.508168438739489</v>
+      </c>
+      <c r="R74" s="92">
+        <v>89.599834292417327</v>
       </c>
       <c r="S74" s="40">
-        <v>89.495470170298375</v>
+        <v>90.57658795097116</v>
       </c>
       <c r="T74" s="40">
-        <v>90.374548462996842</v>
+        <v>91.455666243669612</v>
       </c>
       <c r="U74" s="40">
-        <v>91.169905013533551</v>
+        <v>92.251022794206321</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="98"/>
-      <c r="C75" s="96">
+      <c r="C75" s="91">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D75" s="40">
-        <v>83.405347320714014</v>
+        <v>84.487851736446331</v>
       </c>
       <c r="E75" s="40">
-        <v>83.420442110668063</v>
+        <v>84.502946526400365</v>
       </c>
       <c r="F75" s="40">
-        <v>83.413048744159951</v>
-      </c>
-      <c r="G75" s="97">
-        <v>83.377977646621545</v>
+        <v>84.495553159892268</v>
+      </c>
+      <c r="G75" s="92">
+        <v>84.460482062353847</v>
       </c>
       <c r="H75" s="40">
-        <v>83.308309385295189</v>
+        <v>84.390813801027491</v>
       </c>
       <c r="I75" s="40">
-        <v>83.194608370056969</v>
+        <v>84.277112785789271</v>
       </c>
       <c r="J75" s="40">
-        <v>83.023664774733291</v>
+        <v>84.106169190465579</v>
       </c>
       <c r="M75" s="98"/>
-      <c r="N75" s="96">
+      <c r="N75" s="91">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O75" s="40">
-        <v>79.236977330393799</v>
+        <v>80.319757176382979</v>
       </c>
       <c r="P75" s="40">
-        <v>80.438020704930665</v>
+        <v>81.52080055091983</v>
       </c>
       <c r="Q75" s="40">
-        <v>81.497764858933778</v>
-      </c>
-      <c r="R75" s="97">
-        <v>82.439759662492108</v>
+        <v>82.580544704922929</v>
+      </c>
+      <c r="R75" s="92">
+        <v>83.522539508481259</v>
       </c>
       <c r="S75" s="40">
-        <v>83.282597118307436</v>
+        <v>84.365376964296601</v>
       </c>
       <c r="T75" s="40">
-        <v>84.041150828541248</v>
+        <v>85.123930674530399</v>
       </c>
       <c r="U75" s="40">
-        <v>84.727461328276604</v>
+        <v>85.810241174265755</v>
       </c>
     </row>
   </sheetData>
@@ -59567,13 +59849,13 @@
       <c r="A22" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="93" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="83"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83"/>
-      <c r="F22" s="100">
+      <c r="F22" s="94">
         <f>F8+F15*F20</f>
         <v>0</v>
       </c>
@@ -59621,13 +59903,13 @@
       <c r="A32" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="93" t="s">
         <v>253</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
-      <c r="F32" s="100">
+      <c r="F32" s="94">
         <f>F28+F29+F30</f>
         <v>0</v>
       </c>
@@ -59668,13 +59950,13 @@
       <c r="A41" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="93" t="s">
         <v>264</v>
       </c>
       <c r="C41" s="83"/>
       <c r="D41" s="83"/>
       <c r="E41" s="83"/>
-      <c r="F41" s="100" t="e">
+      <c r="F41" s="94" t="e">
         <f>(F32*(F35/F37)*(1-F39))+((F36/F38)*F22)</f>
         <v>#DIV/0!</v>
       </c>
